--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43627,6 +43627,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43664,6 +43664,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43701,6 +43701,41 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43736,6 +43736,43 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43773,6 +43773,43 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43810,6 +43810,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43847,6 +43847,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43884,6 +43884,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43921,6 +43921,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43956,6 +43956,76 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>87200</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>33800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44026,6 +44026,41 @@
         <v>33800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44061,6 +44061,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44096,6 +44096,43 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44133,6 +44133,41 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44168,6 +44168,78 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44240,6 +44240,41 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>43700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44275,6 +44275,41 @@
         <v>43700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>25100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1883"/>
+  <dimension ref="A1:I1884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67235,6 +67235,43 @@
         <v>25100</v>
       </c>
     </row>
+    <row r="1884">
+      <c r="A1884" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1884" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1884" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1884" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1884" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1884" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1884" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1884"/>
+  <dimension ref="A1:I1885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67272,6 +67272,43 @@
         </is>
       </c>
     </row>
+    <row r="1885">
+      <c r="A1885" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1885" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1885" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1885" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1885" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1885" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1885"/>
+  <dimension ref="A1:I1886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67309,6 +67309,41 @@
         </is>
       </c>
     </row>
+    <row r="1886">
+      <c r="A1886" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1886" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1886" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1886" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1886" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1886" t="n">
+        <v>91200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1886"/>
+  <dimension ref="A1:I1887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67344,6 +67344,41 @@
         <v>91200</v>
       </c>
     </row>
+    <row r="1887">
+      <c r="A1887" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1887" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1887" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1887" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1887" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1887" t="n">
+        <v>1206600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1887"/>
+  <dimension ref="A1:I1888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67379,6 +67379,41 @@
         <v>1206600</v>
       </c>
     </row>
+    <row r="1888">
+      <c r="A1888" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1888" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1888" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1888" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1888" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1888" t="n">
+        <v>124000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1888"/>
+  <dimension ref="A1:I1889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67414,6 +67414,41 @@
         <v>124000</v>
       </c>
     </row>
+    <row r="1889">
+      <c r="A1889" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1889" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1889" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1889" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1889" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1889" t="n">
+        <v>210900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1889"/>
+  <dimension ref="A1:I1890"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67449,6 +67449,41 @@
         <v>210900</v>
       </c>
     </row>
+    <row r="1890">
+      <c r="A1890" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1890" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1890" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1890" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1890" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1890" t="n">
+        <v>192900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1890"/>
+  <dimension ref="A1:I1891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67484,6 +67484,41 @@
         <v>192900</v>
       </c>
     </row>
+    <row r="1891">
+      <c r="A1891" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1891" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1891" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1891" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1891" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1891" t="n">
+        <v>109000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1891"/>
+  <dimension ref="A1:I1892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67519,6 +67519,41 @@
         <v>109000</v>
       </c>
     </row>
+    <row r="1892">
+      <c r="A1892" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1892" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1892" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1892" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1892" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1892" t="n">
+        <v>166000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1892"/>
+  <dimension ref="A1:I1893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67554,6 +67554,41 @@
         <v>166000</v>
       </c>
     </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1893" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1893" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1893" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1893" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1893" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1893"/>
+  <dimension ref="A1:I1894"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67589,6 +67589,43 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1894">
+      <c r="A1894" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1894" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1894" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1894" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1894" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1894" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1894"/>
+  <dimension ref="A1:I1895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67626,6 +67626,41 @@
         </is>
       </c>
     </row>
+    <row r="1895">
+      <c r="A1895" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1895" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1895" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1895" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1895" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1895" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1895"/>
+  <dimension ref="A1:I1896"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67661,6 +67661,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1896">
+      <c r="A1896" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1896" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1896" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1896" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1896" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1896" t="n">
+        <v>70500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1896"/>
+  <dimension ref="A1:I1897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67696,6 +67696,41 @@
         <v>70500</v>
       </c>
     </row>
+    <row r="1897">
+      <c r="A1897" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1897" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1897" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1897" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1897" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1897" t="n">
+        <v>80100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1897"/>
+  <dimension ref="A1:I1898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67731,6 +67731,43 @@
         <v>80100</v>
       </c>
     </row>
+    <row r="1898">
+      <c r="A1898" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E1898" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1898" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1898" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1898" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1898" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2511"/>
+  <dimension ref="A1:I2512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89223,6 +89223,41 @@
         </is>
       </c>
     </row>
+    <row r="2512">
+      <c r="A2512" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2512" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2512" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2512" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2512" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2512" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2512" t="n">
+        <v>14000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2512"/>
+  <dimension ref="A1:I2513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89258,6 +89258,41 @@
         <v>14000</v>
       </c>
     </row>
+    <row r="2513">
+      <c r="A2513" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2513" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2513" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2513" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2513" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2513" t="n">
+        <v>206500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2513"/>
+  <dimension ref="A1:I2514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89293,6 +89293,41 @@
         <v>206500</v>
       </c>
     </row>
+    <row r="2514">
+      <c r="A2514" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2514" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2514" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2514" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2514" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2514" t="n">
+        <v>128700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2514"/>
+  <dimension ref="A1:I2515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89328,6 +89328,41 @@
         <v>128700</v>
       </c>
     </row>
+    <row r="2515">
+      <c r="A2515" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2515" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2515" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2515" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2515" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2515" t="n">
+        <v>15500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2515"/>
+  <dimension ref="A1:I2516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89363,6 +89363,41 @@
         <v>15500</v>
       </c>
     </row>
+    <row r="2516">
+      <c r="A2516" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2516" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2516" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2516" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2516" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2516" t="n">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2516"/>
+  <dimension ref="A1:I2517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89398,6 +89398,41 @@
         <v>600</v>
       </c>
     </row>
+    <row r="2517">
+      <c r="A2517" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2517" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2517" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2517" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2517" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2517" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2517" t="n">
+        <v>800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2517"/>
+  <dimension ref="A1:I2518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89433,6 +89433,41 @@
         <v>800</v>
       </c>
     </row>
+    <row r="2518">
+      <c r="A2518" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2518" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2518" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2518" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2518" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2518" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2518" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2518" t="n">
+        <v>8800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2518"/>
+  <dimension ref="A1:I2519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89468,6 +89468,41 @@
         <v>8800</v>
       </c>
     </row>
+    <row r="2519">
+      <c r="A2519" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2519" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2519" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2519" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2519" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2519" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2519" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2519"/>
+  <dimension ref="A1:I2520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89503,6 +89503,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2520">
+      <c r="A2520" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2520" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2520" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2520" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2520" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2520" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2520" t="n">
+        <v>110700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2520"/>
+  <dimension ref="A1:I2521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89538,6 +89538,41 @@
         <v>110700</v>
       </c>
     </row>
+    <row r="2521">
+      <c r="A2521" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2521" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2521" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2521" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2521" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2521" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2521" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2521" t="n">
+        <v>26700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2521"/>
+  <dimension ref="A1:I2523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89573,6 +89573,78 @@
         <v>26700</v>
       </c>
     </row>
+    <row r="2522">
+      <c r="A2522" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2522" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2522" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2522" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2522" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2522" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2522" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2522" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2523" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2523" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2523" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2523" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2523" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2523" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2523" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2523"/>
+  <dimension ref="A1:I2524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89645,6 +89645,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="2524">
+      <c r="A2524" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2524" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2524" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2524" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2524" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2524" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2524" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2524" t="n">
+        <v>359700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2524"/>
+  <dimension ref="A1:I2527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89680,6 +89680,115 @@
         <v>359700</v>
       </c>
     </row>
+    <row r="2525">
+      <c r="A2525" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2525" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2525" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2525" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2525" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2525" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2525" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2525" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2526" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2526" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2526" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2526" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2526" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2526" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2526" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2527" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2527" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2527" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2527" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2527" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2527" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2527" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2527"/>
+  <dimension ref="A1:I2528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89789,6 +89789,41 @@
         </is>
       </c>
     </row>
+    <row r="2528">
+      <c r="A2528" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2528" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2528" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2528" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2528" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2528" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2528" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2528" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2528" t="n">
+        <v>61100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2528"/>
+  <dimension ref="A1:I2529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89824,6 +89824,41 @@
         <v>61100</v>
       </c>
     </row>
+    <row r="2529">
+      <c r="A2529" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2529" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2529" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2529" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2529" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2529" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2529" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2529" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7221.xlsx
+++ b/data/7221.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2529"/>
+  <dimension ref="A1:I2532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89859,6 +89859,113 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2530">
+      <c r="A2530" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2530" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2530" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2530" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2530" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2530" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2530" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2530" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2531" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2531" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2531" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2531" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2531" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2531" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2531" t="n">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2532" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="D2532" t="inlineStr">
+        <is>
+          <t>BSLCORP</t>
+        </is>
+      </c>
+      <c r="E2532" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2532" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2532" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2532" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2532" t="n">
+        <v>130000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
